--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200605.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200605.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\beijing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58703DF8-06D3-46A7-882D-EB5E992B0AD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12384" windowHeight="8556"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10373,7 +10379,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10568,6 +10574,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10830,11 +10839,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -11059,9 +11068,7 @@
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
       <c r="V2" s="20"/>
-      <c r="W2" s="18">
-        <v>1</v>
-      </c>
+      <c r="W2" s="18"/>
       <c r="X2" s="18"/>
       <c r="Y2" s="20" t="s">
         <v>49</v>
@@ -13489,9 +13496,7 @@
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
       <c r="V41" s="20"/>
-      <c r="W41" s="20">
-        <v>1</v>
-      </c>
+      <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20" t="s">
         <v>49</v>
@@ -13548,25 +13553,25 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:L49 P49:X49 I54:L1048576 P54:X1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I49:L49 P49:X49 I54:L1048576 P54:X1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B49 B54:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B49 B54:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM49 AS49 AM2:AM42 AM54:AM1048576 AS2:AS42 AS54:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM49 AS49 AM2:AM42 AM54:AM1048576 AS2:AS42 AS54:AS1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H54:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H49 H54:H1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($G49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49 G54:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G49 G54:G1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($F49)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG49 AK49 AQ49 AG2:AG42 AG54:AG1048576 AK2:AK42 AK54:AK1048576 AQ2:AQ42 AQ54:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG49 AK49 AQ49 AG2:AG42 AG54:AG1048576 AK2:AK42 AK54:AK1048576 AQ2:AQ42 AQ54:AQ1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49 AI2:AI42 AI54:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI49 AI2:AI42 AI54:AI1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13575,7 +13580,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -13588,7 +13593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
